--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -377,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +387,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,9 +472,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1686,7 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1668,7 +1709,7 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1691,7 +1732,7 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1714,7 +1755,7 @@
       <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1737,7 +1778,7 @@
       <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1760,7 +1801,7 @@
       <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1783,7 +1824,7 @@
       <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1806,7 +1847,7 @@
       <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1829,7 +1870,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1852,7 +1893,7 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1872,7 +1913,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1892,7 +1933,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1912,7 +1953,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="13" t="s">
